--- a/Enter Record(1-1).xlsx
+++ b/Enter Record(1-1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m0rsy/Documents/Al-Farid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15286CFA-318A-E146-B7CA-0FEE1DD8458A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF39AC83-9A55-4C48-AE01-F94719D87B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4162" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -974,6 +974,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0000</t>
   </si>
 </sst>
 </file>
@@ -984,9 +987,16 @@
     <numFmt numFmtId="44" formatCode="_(&quot;EGP&quot;* #,##0.00_);_(&quot;EGP&quot;* \(#,##0.00\);_(&quot;EGP&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1033,16 +1043,18 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1143,13 +1155,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B414F3E8-0BB3-0D4E-A12E-E834D972F11D}" name="Table3" displayName="Table3" ref="A1:C110" totalsRowShown="0">
   <autoFilter ref="A1:C110" xr:uid="{804FDB22-9B25-8941-86E3-1C1F5674E4D4}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="شركة غاز مصر"/>
-        <filter val="شركة وان كير"/>
-        <filter val="شركة يونى كير"/>
-        <filter val="وان كير"/>
-        <filter val="يونى ميد"/>
+        <filter val="0000"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1464,7 +1472,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P1238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+    <sheetView topLeftCell="A230" workbookViewId="0">
       <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
@@ -27897,8 +27905,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28181,7 +28189,7 @@
         <v xml:space="preserve">0017 شركة المصرية للإتصالات </v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -28205,7 +28213,7 @@
         <v xml:space="preserve">0018 غاز مصر </v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -28217,7 +28225,7 @@
         <v>0018 شركة غاز مصر</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
@@ -28229,7 +28237,7 @@
         <v>0020 وان كير</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -28265,7 +28273,7 @@
         <v>0021 يونى كير</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
@@ -29096,7 +29104,7 @@
         <v xml:space="preserve">0094 انابيب البترول </v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>150</v>
       </c>
@@ -29144,14 +29152,16 @@
         <v xml:space="preserve">0120 الشركة العامة للبترول </v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="2" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C106" s="2" t="str">
         <f>_xlfn.CONCAT(Table3[[#This Row],[G/L Code]]," ",Table3[[#This Row],[Entity]])</f>
-        <v xml:space="preserve"> شركة بتروتريد</v>
+        <v>0000 شركة بتروتريد</v>
       </c>
     </row>
     <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
@@ -29178,7 +29188,7 @@
         <v xml:space="preserve">0017 شركة المصرية للإتصالات </v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>58</v>
       </c>
@@ -29190,7 +29200,7 @@
         <v>0020 شركة وان كير</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>61</v>
       </c>
